--- a/menu_files/chef_weekly_orderSheet_St._Brigid’s_National_School.xlsx
+++ b/menu_files/chef_weekly_orderSheet_St._Brigid’s_National_School.xlsx
@@ -21,7 +21,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -31,16 +31,27 @@
     </font>
     <font>
       <b val="1"/>
+      <color rgb="00000000"/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <b val="1"/>
       <color rgb="00FFFFFF"/>
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D9E1F2"/>
+        <bgColor rgb="00D9E1F2"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -67,10 +78,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -441,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,33 +466,43 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="25" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Menu Item</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Total Quantity</t>
+          <t>Chef Order Sheet for Monday</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
+          <t>Menu Item</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Total Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
           <t>Traditional Vegetable Soup</t>
         </is>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B3" s="4" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -487,7 +514,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,33 +522,43 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="25" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Menu Item</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Total Quantity</t>
+          <t>Chef Order Sheet for Tuesday</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
+          <t>Menu Item</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Total Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
           <t>Savoury Beef Pie</t>
         </is>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B3" s="4" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -533,7 +570,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -541,33 +578,43 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="25" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Menu Item</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Total Quantity</t>
+          <t>Chef Order Sheet for Wednesday</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
+          <t>Menu Item</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Total Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
           <t>Pasta Bolognese</t>
         </is>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B3" s="4" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -579,7 +626,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -587,33 +634,43 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="25" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Menu Item</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Total Quantity</t>
+          <t>Chef Order Sheet for Thursday</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
+          <t>Menu Item</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Total Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
           <t>Chicken Curry Madras</t>
         </is>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B3" s="4" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -625,7 +682,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -633,33 +690,43 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="25" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Menu Item</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Total Quantity</t>
+          <t>Chef Order Sheet for Friday</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
+          <t>Menu Item</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Total Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
           <t>Pulled Pork Bap with BBQ Sauce and Crispy Onions</t>
         </is>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B3" s="4" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>